--- a/app/config/tables/members/forms/members/members.xlsx
+++ b/app/config/tables/members/forms/members/members.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="13440" yWindow="9560" windowWidth="25000" windowHeight="16140" tabRatio="989" activeTab="3"/>
+    <workbookView xWindow="13440" yWindow="9560" windowWidth="25000" windowHeight="16140" tabRatio="989" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="86">
   <si>
     <t>clause</t>
   </si>
@@ -129,24 +129,6 @@
     <t>Date Created</t>
   </si>
   <si>
-    <t>individual_id</t>
-  </si>
-  <si>
-    <t>Individual ID</t>
-  </si>
-  <si>
-    <t>custom_individual_form_id</t>
-  </si>
-  <si>
-    <t>Custom Individual Form ID</t>
-  </si>
-  <si>
-    <t>custom_individual_row_id</t>
-  </si>
-  <si>
-    <t>Custom Individual Row ID</t>
-  </si>
-  <si>
     <t>status</t>
   </si>
   <si>
@@ -301,6 +283,15 @@
   </si>
   <si>
     <t>member_id</t>
+  </si>
+  <si>
+    <t>Member ID</t>
+  </si>
+  <si>
+    <t>Custom Member Form ID</t>
+  </si>
+  <si>
+    <t>Custom Member Row ID</t>
   </si>
 </sst>
 </file>
@@ -894,7 +885,7 @@
         <v>16</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C2"/>
     </row>
@@ -912,7 +903,7 @@
         <v>18</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C4"/>
     </row>
@@ -922,7 +913,7 @@
       </c>
       <c r="B5"/>
       <c r="C5" s="1" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -943,11 +934,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="42.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -986,74 +980,74 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
-        <v>31</v>
+        <v>82</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
-        <v>33</v>
+        <v>80</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
-        <v>35</v>
+        <v>81</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B10" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B11" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B12" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="15" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B13" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -1061,95 +1055,95 @@
         <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="15" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B15" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="15" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B16" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="15" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B17" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="15" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B18" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="15" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B19" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="15" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B20" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="15" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B21" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="15" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B22" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="15" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B23" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="15" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B24" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="15" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B25" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1162,7 +1156,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
@@ -1181,7 +1175,7 @@
         <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D1" s="17"/>
       <c r="E1" s="17"/>
@@ -1195,7 +1189,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>25</v>
@@ -1203,7 +1197,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>27</v>
@@ -1211,7 +1205,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>29</v>
@@ -1219,42 +1213,42 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1275,13 +1269,13 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D1" s="19" t="s">
         <v>2</v>
@@ -1292,36 +1286,36 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="19" t="s">
         <v>46</v>
-      </c>
-      <c r="B3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="D3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E3" s="19" t="s">
-        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/app/config/tables/members/forms/members/members.xlsx
+++ b/app/config/tables/members/forms/members/members.xlsx
@@ -9,14 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="13440" yWindow="9560" windowWidth="25000" windowHeight="16140" tabRatio="989" activeTab="2"/>
+    <workbookView xWindow="3800" yWindow="540" windowWidth="25000" windowHeight="16140" tabRatio="989" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
     <sheet name="settings" sheetId="2" r:id="rId2"/>
-    <sheet name="table_specific_translations" sheetId="3" r:id="rId3"/>
-    <sheet name="model" sheetId="4" r:id="rId4"/>
-    <sheet name="properties" sheetId="5" r:id="rId5"/>
+    <sheet name="model" sheetId="4" r:id="rId3"/>
+    <sheet name="properties" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="43">
   <si>
     <t>clause</t>
   </si>
@@ -99,48 +98,21 @@
     <t>instance_name</t>
   </si>
   <si>
-    <t>first_last_name</t>
-  </si>
-  <si>
-    <t>string_token</t>
-  </si>
-  <si>
-    <t>text</t>
-  </si>
-  <si>
-    <t>text.spanish</t>
-  </si>
-  <si>
     <t>beneficiary_entity_row_id</t>
   </si>
   <si>
-    <t>Beneficiary Entity Row ID</t>
-  </si>
-  <si>
     <t>beneficiary_entity_status</t>
   </si>
   <si>
-    <t>Beneficiary Entity Status</t>
-  </si>
-  <si>
     <t>date_created</t>
   </si>
   <si>
-    <t>Date Created</t>
-  </si>
-  <si>
     <t>status</t>
   </si>
   <si>
-    <t>Status</t>
-  </si>
-  <si>
     <t>status_reason</t>
   </si>
   <si>
-    <t>Status Reason</t>
-  </si>
-  <si>
     <t>isSessionVariable</t>
   </si>
   <si>
@@ -177,99 +149,6 @@
     <t>false</t>
   </si>
   <si>
-    <t>custom_beneficiary_entity_row_id</t>
-  </si>
-  <si>
-    <t>Custom Beneficiary Entity Row ID</t>
-  </si>
-  <si>
-    <t>date_screened</t>
-  </si>
-  <si>
-    <t>Date Screened</t>
-  </si>
-  <si>
-    <t>first_name</t>
-  </si>
-  <si>
-    <t>First Name</t>
-  </si>
-  <si>
-    <t>last_name</t>
-  </si>
-  <si>
-    <t>Last Name</t>
-  </si>
-  <si>
-    <t>First and Last Name</t>
-  </si>
-  <si>
-    <t>birth_date</t>
-  </si>
-  <si>
-    <t>Birth Date</t>
-  </si>
-  <si>
-    <t>age</t>
-  </si>
-  <si>
-    <t>Age</t>
-  </si>
-  <si>
-    <t>gender</t>
-  </si>
-  <si>
-    <t>Gender</t>
-  </si>
-  <si>
-    <t>id_type</t>
-  </si>
-  <si>
-    <t>ID Type</t>
-  </si>
-  <si>
-    <t>id_number</t>
-  </si>
-  <si>
-    <t>ID Number</t>
-  </si>
-  <si>
-    <t>beneficiary_code</t>
-  </si>
-  <si>
-    <t>Beneficiary Code</t>
-  </si>
-  <si>
-    <t>verify_user</t>
-  </si>
-  <si>
-    <t>Verify User</t>
-  </si>
-  <si>
-    <t>is_head_of_household</t>
-  </si>
-  <si>
-    <t>Is Head of Household</t>
-  </si>
-  <si>
-    <t>picture</t>
-  </si>
-  <si>
-    <t>Picture</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>vulnerability</t>
-  </si>
-  <si>
-    <t>Vulnerability</t>
-  </si>
-  <si>
     <t>members</t>
   </si>
   <si>
@@ -283,15 +162,6 @@
   </si>
   <si>
     <t>member_id</t>
-  </si>
-  <si>
-    <t>Member ID</t>
-  </si>
-  <si>
-    <t>Custom Member Form ID</t>
-  </si>
-  <si>
-    <t>Custom Member Row ID</t>
   </si>
 </sst>
 </file>
@@ -329,7 +199,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -370,12 +240,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
   </fills>
@@ -419,7 +283,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -435,7 +299,6 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -885,7 +748,7 @@
         <v>16</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="C2"/>
     </row>
@@ -903,7 +766,7 @@
         <v>18</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="C4"/>
     </row>
@@ -913,7 +776,7 @@
       </c>
       <c r="B5"/>
       <c r="C5" s="1" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -932,231 +795,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="42.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="B5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="B6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="B7" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="B10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="B11" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="B12" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="B13" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="B15" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="B16" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="B17" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="B18" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="B19" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="B20" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="B21" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="B22" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="B23" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="B24" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="B25" t="s">
-        <v>77</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
@@ -1171,84 +812,84 @@
       <c r="A1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="15" t="s">
         <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="18"/>
+        <v>26</v>
+      </c>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="17"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>82</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>81</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1257,7 +898,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
@@ -1268,54 +909,54 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="D1" s="19" t="s">
+      <c r="A1" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="19" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="D2" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2" s="20" t="s">
-        <v>43</v>
+      <c r="A2" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" s="21" t="s">
-        <v>44</v>
+        <v>32</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>35</v>
       </c>
       <c r="D3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E3" s="19" t="s">
-        <v>46</v>
+        <v>36</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
